--- a/data/trans_bre/P6906-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6906-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-32,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,28; 14,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,43; 8,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,37; 36,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 54,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 395,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 56,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,74%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,44; 9,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,2; 22,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 27,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,84; 24,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,36; 44,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,71; 134,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 215,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,93; 268,05</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,3%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; 11,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 30,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,83; 16,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; 17,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; 68,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 192,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,13; 91,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,45; 118,02</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,76; 21,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,41; 7,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 26,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 15,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,79; 125,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,09; 40,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,15; 148,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,04; 122,1</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,56%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,89; 24,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,44; 32,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,87; 37,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 31,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 271,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,05; 172,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,85; 160,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,21; 329,04</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 72,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 11,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 16,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 14,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 29,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 45,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 82,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 93,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>17,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,74</t>
+          <t>0,0; 57,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>22,44%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 24,26</t>
+          <t>-18,45; 24,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 268,05</t>
+          <t>-51,49; 254,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 17,27</t>
+          <t>-5,99; 17,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 118,02</t>
+          <t>-23,24; 116,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 15,71</t>
+          <t>-12,58; 12,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 122,1</t>
+          <t>-49,8; 89,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,13</t>
+          <t>20,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>127,56%</t>
+          <t>126,92%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 31,56</t>
+          <t>7,32; 31,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,21; 329,04</t>
+          <t>27,16; 320,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,72</t>
+          <t>0,0; 72,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,74</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36,6%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-7,67; 5,98</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-4,49; 11,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,82; 16,82</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 14,25</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 12,71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-31,36; 29,97</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-16,32; 45,67</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>2,56; 82,42</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 93,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-10,24; 80,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6906-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Edad-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 14,82</t>
+          <t>-17,89; 17,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 8,83</t>
+          <t>-66,24; 10,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 36,76</t>
+          <t>-31,22; 34,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,42</t>
+          <t>0,0; 51,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 395,76</t>
+          <t>-100,0; 394,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,35</t>
+          <t>-100,0; 91,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 9,11</t>
+          <t>-15,95; 9,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 22,3</t>
+          <t>-8,14; 22,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 27,38</t>
+          <t>-3,26; 27,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 24,64</t>
+          <t>-16,84; 23,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 44,86</t>
+          <t>-48,48; 40,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 134,22</t>
+          <t>-29,73; 142,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 215,74</t>
+          <t>-16,16; 206,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 254,44</t>
+          <t>-51,34; 232,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 11,59</t>
+          <t>-13,21; 11,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 30,41</t>
+          <t>0,17; 28,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 16,79</t>
+          <t>-9,13; 18,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 17,38</t>
+          <t>-6,55; 17,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 68,63</t>
+          <t>-50,31; 66,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 192,9</t>
+          <t>0,82; 175,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 91,08</t>
+          <t>-33,2; 102,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 116,69</t>
+          <t>-23,81; 135,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 21,77</t>
+          <t>-11,73; 21,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 7,81</t>
+          <t>-26,53; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 26,35</t>
+          <t>-8,35; 25,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 12,9</t>
+          <t>-13,43; 12,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 125,23</t>
+          <t>-43,41; 118,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 40,12</t>
+          <t>-76,02; 28,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 148,28</t>
+          <t>-27,54; 129,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 89,76</t>
+          <t>-55,03; 86,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 24,43</t>
+          <t>-19,61; 26,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 32,46</t>
+          <t>-19,38; 30,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 37,44</t>
+          <t>-12,5; 35,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 31,82</t>
+          <t>6,15; 32,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 271,25</t>
+          <t>-100,0; 314,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 172,67</t>
+          <t>-58,2; 164,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 160,62</t>
+          <t>-29,35; 164,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,16; 320,43</t>
+          <t>23,16; 322,82</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,57</t>
+          <t>0,0; 71,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,98</t>
+          <t>-7,6; 5,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,06</t>
+          <t>-3,85; 12,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,82; 16,82</t>
+          <t>0,7; 17,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 12,71</t>
+          <t>-1,8; 12,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 29,97</t>
+          <t>-29,87; 28,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 45,67</t>
+          <t>-14,34; 54,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 82,42</t>
+          <t>1,76; 81,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 80,12</t>
+          <t>-7,81; 82,42</t>
         </is>
       </c>
     </row>
